--- a/SeparablePanel/tables/ConditioningData.xlsx
+++ b/SeparablePanel/tables/ConditioningData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11003"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/myself/Documents/ogr-external-projects/ecb-bear/BEAR-toolbox/tbx/gui/tables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/myself/Documents/ogr-external-projects/ecb-bear/BEARX-GUI-Examples/SeparablePanel/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AC44B99-ADB0-5049-A7B0-EE3B59D43CF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DD8DE61-BDB0-F14B-B367-19CDDA189F48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="820" windowWidth="28160" windowHeight="17440" xr2:uid="{373502F1-0B0B-2440-B783-458BCD05DD7E}"/>
+    <workbookView xWindow="1040" yWindow="820" windowWidth="28160" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Custom" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
     <author>Jaromir Benes</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{E182BA90-CB77-F44A-83C3-7BD136A37DFA}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -120,16 +120,70 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Conditioning data</t>
+  </si>
+  <si>
+    <t>2015-Q1</t>
+  </si>
+  <si>
+    <t>2015-Q2</t>
+  </si>
+  <si>
+    <t>2015-Q3</t>
+  </si>
+  <si>
+    <t>2015-Q4</t>
+  </si>
+  <si>
+    <t>2016-Q1</t>
+  </si>
+  <si>
+    <t>2016-Q2</t>
+  </si>
+  <si>
+    <t>2016-Q3</t>
+  </si>
+  <si>
+    <t>2016-Q4</t>
+  </si>
+  <si>
+    <t>US_YER</t>
+  </si>
+  <si>
+    <t>US_HICSA</t>
+  </si>
+  <si>
+    <t>US_STN</t>
+  </si>
+  <si>
+    <t>EA_YER</t>
+  </si>
+  <si>
+    <t>EA_HICSA</t>
+  </si>
+  <si>
+    <t>EA_STN</t>
+  </si>
+  <si>
+    <t>UK_YER</t>
+  </si>
+  <si>
+    <t>UK_HICSA</t>
+  </si>
+  <si>
+    <t>UK_STN</t>
+  </si>
+  <si>
+    <t>Oil</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="14"/>
       <color theme="1"/>
@@ -139,12 +193,6 @@
     <font>
       <b/>
       <sz val="14"/>
-      <name val="Grandview"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
       <name val="Grandview"/>
     </font>
     <font>
@@ -170,7 +218,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
+        <fgColor theme="7" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -187,11 +235,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -526,19 +572,126 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3BAF4E2-48C5-FB44-B988-247AEE8C3DA3}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4:J6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="1" width="26.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="16" width="18.375" customWidth="1"/>
+    <col min="1" max="1" width="18.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.75" customWidth="1"/>
+    <col min="3" max="3" width="9.75" customWidth="1"/>
+    <col min="4" max="5" width="7.75" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="8" width="7.75" customWidth="1"/>
+    <col min="9" max="9" width="9.75" customWidth="1"/>
+    <col min="10" max="10" width="7.75" customWidth="1"/>
+    <col min="11" max="11" width="4.75" customWidth="1"/>
+    <col min="12" max="16" width="18.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="3" customFormat="1">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
